--- a/Project/Data/Water/Cantons/NW/NW 2017.xlsx
+++ b/Project/Data/Water/Cantons/NW/NW 2017.xlsx
@@ -21,32 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
-  <si>
-    <t>mation</t>
-  </si>
-  <si>
-    <t>pompes)</t>
-  </si>
-  <si>
-    <t>Hiver</t>
-  </si>
-  <si>
-    <t>Eté</t>
-  </si>
-  <si>
-    <t>Année</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>(m3/s)</t>
   </si>
   <si>
-    <t>(MW)</t>
-  </si>
-  <si>
-    <t>(GWh)</t>
-  </si>
-  <si>
     <t>Rotzloch</t>
   </si>
   <si>
@@ -75,6 +54,36 @@
   </si>
   <si>
     <t>Buoholzbach</t>
+  </si>
+  <si>
+    <t>idx</t>
+  </si>
+  <si>
+    <t>idx2</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Date Start</t>
+  </si>
+  <si>
+    <t>Date End</t>
+  </si>
+  <si>
+    <t>(MW1)</t>
+  </si>
+  <si>
+    <t>(MW2)</t>
+  </si>
+  <si>
+    <t>(GWh) Winter</t>
+  </si>
+  <si>
+    <t>(GWh) Summer</t>
+  </si>
+  <si>
+    <t>(GWh) Year</t>
   </si>
 </sst>
 </file>
@@ -129,11 +138,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -467,386 +477,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L45" sqref="A13:L45"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="E1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
+      <c r="B2" s="2">
+        <v>304100</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1872</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1935</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>304100</v>
+        <v>303000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>1872</v>
+        <v>1905</v>
       </c>
       <c r="E3" s="2">
-        <v>1935</v>
+        <v>1963</v>
       </c>
       <c r="F3" s="3">
-        <v>0.6</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3">
-        <v>0.3</v>
+        <v>7.73</v>
       </c>
       <c r="H3" s="3">
-        <v>0.3</v>
+        <v>7.19</v>
       </c>
       <c r="I3" s="3">
-        <v>0.75</v>
+        <v>6.29</v>
       </c>
       <c r="J3" s="3">
-        <v>0.75</v>
+        <v>23.96</v>
       </c>
       <c r="K3" s="3">
-        <v>1.5</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>303000</v>
+        <v>303300</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>1905</v>
+        <v>1937</v>
       </c>
       <c r="E4" s="2">
-        <v>1963</v>
+        <v>1991</v>
       </c>
       <c r="F4" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>7.73</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H4" s="3">
-        <v>7.19</v>
+        <v>6.8</v>
       </c>
       <c r="I4" s="3">
-        <v>6.29</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J4" s="3">
-        <v>23.96</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="K4" s="3">
-        <v>30.25</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>303300</v>
+        <v>303400</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>1937</v>
+        <v>1945</v>
       </c>
       <c r="E5" s="2">
-        <v>1991</v>
+        <v>1983</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="G5" s="3">
-        <v>8.6999999999999993</v>
+        <v>6.6</v>
       </c>
       <c r="H5" s="3">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I5" s="3">
-        <v>4.4000000000000004</v>
+        <v>6.6</v>
       </c>
       <c r="J5" s="3">
-        <v>9.8000000000000007</v>
+        <v>13.7</v>
       </c>
       <c r="K5" s="3">
-        <v>14.2</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>303400</v>
+        <v>302600</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>1945</v>
+        <v>1957</v>
       </c>
       <c r="E6" s="2">
-        <v>1983</v>
+        <v>1998</v>
       </c>
       <c r="F6" s="3">
-        <v>2.6</v>
+        <v>0.51</v>
       </c>
       <c r="G6" s="3">
-        <v>6.6</v>
+        <v>1.63</v>
       </c>
       <c r="H6" s="3">
-        <v>6.6</v>
+        <v>1.56</v>
       </c>
       <c r="I6" s="3">
-        <v>6.6</v>
+        <v>3.5</v>
       </c>
       <c r="J6" s="3">
-        <v>13.7</v>
+        <v>5.3</v>
       </c>
       <c r="K6" s="3">
-        <v>20.3</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>302600</v>
+        <v>303200</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>1957</v>
+        <v>1962</v>
       </c>
       <c r="E7" s="2">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="F7" s="3">
-        <v>0.51</v>
+        <v>13.8</v>
       </c>
       <c r="G7" s="3">
-        <v>1.63</v>
+        <v>11.89</v>
       </c>
       <c r="H7" s="3">
-        <v>1.56</v>
+        <v>11.39</v>
       </c>
       <c r="I7" s="3">
-        <v>3.5</v>
+        <v>11.73</v>
       </c>
       <c r="J7" s="3">
-        <v>5.3</v>
+        <v>38.86</v>
       </c>
       <c r="K7" s="3">
-        <v>8.8000000000000007</v>
+        <v>50.59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>303200</v>
+        <v>303100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>1962</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1987</v>
+        <v>1963</v>
       </c>
       <c r="F8" s="3">
-        <v>13.8</v>
+        <v>11</v>
       </c>
       <c r="G8" s="3">
-        <v>11.89</v>
+        <v>0.48</v>
       </c>
       <c r="H8" s="3">
-        <v>11.39</v>
+        <v>0.44</v>
       </c>
       <c r="I8" s="3">
-        <v>11.73</v>
+        <v>0.24</v>
       </c>
       <c r="J8" s="3">
-        <v>38.86</v>
+        <v>0.97</v>
       </c>
       <c r="K8" s="3">
-        <v>50.59</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>303100</v>
+        <v>302900</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="F9" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>0.48</v>
+        <v>2.23</v>
       </c>
       <c r="H9" s="3">
-        <v>0.44</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="I9" s="3">
-        <v>0.24</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J9" s="3">
-        <v>0.97</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="K9" s="3">
-        <v>1.21</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>302900</v>
+        <v>302800</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="G10" s="3">
-        <v>2.23</v>
+        <v>7.74</v>
       </c>
       <c r="H10" s="3">
-        <v>2.1800000000000002</v>
+        <v>7.64</v>
       </c>
       <c r="I10" s="3">
-        <v>0.28999999999999998</v>
+        <v>2.46</v>
       </c>
       <c r="J10" s="3">
-        <v>4.0599999999999996</v>
+        <v>14.65</v>
       </c>
       <c r="K10" s="3">
-        <v>4.3499999999999996</v>
+        <v>17.11</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>302800</v>
+        <v>303250</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
-        <v>1967</v>
+        <v>2013</v>
       </c>
       <c r="F11" s="3">
-        <v>1.55</v>
+        <v>0.62</v>
       </c>
       <c r="G11" s="3">
-        <v>7.74</v>
+        <v>2</v>
       </c>
       <c r="H11" s="3">
-        <v>7.64</v>
+        <v>2</v>
       </c>
       <c r="I11" s="3">
-        <v>2.46</v>
+        <v>1.5</v>
       </c>
       <c r="J11" s="3">
-        <v>14.65</v>
+        <v>5.5</v>
       </c>
       <c r="K11" s="3">
-        <v>17.11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>303250</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2013</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.62</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="K12" s="3">
         <v>7</v>
       </c>
     </row>
